--- a/Measurements/error_measurements.xlsx
+++ b/Measurements/error_measurements.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22470" windowHeight="7965" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22470" windowHeight="7965" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Measurements" sheetId="1" r:id="rId1"/>
     <sheet name="Error" sheetId="2" r:id="rId2"/>
     <sheet name="ConvergenceRate" sheetId="3" r:id="rId3"/>
+    <sheet name="Measurements(no damping)" sheetId="4" r:id="rId4"/>
+    <sheet name="Error0" sheetId="5" r:id="rId5"/>
+    <sheet name="ConvergenceRate0" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="8">
   <si>
     <t>step</t>
   </si>
@@ -2973,6 +2976,2814 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Error Velocity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error0!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error0!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error0!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.8311590000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1095300000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5941679999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67222000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26780900000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0675509999999987E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4534999999999966E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.92099E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8042399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7332459999999995E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B7B8-40EB-BB0C-F787D422B698}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error0!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>symplectic_euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error0!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error0!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24.051020999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5405600000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69045199999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47864200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22345900000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0093310000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.871099999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9847600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8200900000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7371949999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B7B8-40EB-BB0C-F787D422B698}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error0!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>midpoint</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error0!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error0!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24.051020999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5405600000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69045199999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47864200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22345900000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0093310000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.871099999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9847600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8200900000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7371949999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B7B8-40EB-BB0C-F787D422B698}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error0!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>backwards_euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error0!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error0!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.8311590000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1095300000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5941679999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67222000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26780900000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0675509999999987E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4534999999999966E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.92099E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8042399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7332459999999995E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B7B8-40EB-BB0C-F787D422B698}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="432298832"/>
+        <c:axId val="432291288"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="432298832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432291288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="432291288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432298832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Error Displacement</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error0!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error0!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error0!$B$15:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.38756560000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4775000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1114500000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8144500000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6141499999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6799499999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1246189999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8246039999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6689870000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5897835999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA94-4EF9-ABAE-B2E96D48676B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error0!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>symplectic_euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error0!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error0!$C$15:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0501136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24041099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12252350000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.84968E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8729600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7446499999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1407939999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.828648E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6699980000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5900363E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AA94-4EF9-ABAE-B2E96D48676B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error0!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>midpoint</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error0!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error0!$D$15:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0501136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24041099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12252350000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.84968E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8729600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7446499999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1407939999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.828648E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6699980000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5900363E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AA94-4EF9-ABAE-B2E96D48676B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error0!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>backwards_euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error0!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error0!$E$15:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.7126535999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40604800000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16393350000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8849000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1317699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8093499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1569690000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8326919999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6710090000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5902891000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AA94-4EF9-ABAE-B2E96D48676B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="587662168"/>
+        <c:axId val="587659872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="587662168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="587659872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="587659872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="587662168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Velocity Convergence Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergenceRate0!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.91047811083990193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9505660633007316</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3714974264377728</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5100724770265375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9534876616630008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.591739567356008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32364027264728729</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60800251444557307</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83796160150811605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-594A-44AE-AFBE-3CAE2CAAB1AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergenceRate0!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>symplectic_euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>15.611869060601338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2312340321991972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4425228040999325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1419678777762363</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7899833331897512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.656548442025297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23020611372438646</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.619233250831416</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84014749367940267</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-594A-44AE-AFBE-3CAE2CAAB1AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergenceRate0!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>midpoint</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>15.611869060601338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2312340321991972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4425228040999325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1419678777762363</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7899833331897512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.656548442025297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23020611372438646</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.619233250831416</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84014749367940267</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-594A-44AE-AFBE-3CAE2CAAB1AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergenceRate0!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>backwards_euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$E$3:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.91047811083990193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9505660633007316</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3714974264377728</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5100724770265375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9534876616630008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.591739567356008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32364027264728729</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60800251444557307</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83796160150811605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-594A-44AE-AFBE-3CAE2CAAB1AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="430223568"/>
+        <c:axId val="587679224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="430223568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="587679224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="587679224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430223568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Displacement Convergence Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergenceRate0!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$A$15:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$B$15:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.1830906051487791</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92184504620012453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0380065135742118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.181474565892821</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1644732788140739</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1083653243294769</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0621843782411986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0333299278837142</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0172564562738864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0128-410F-9646-765E6C54BF9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergenceRate0!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>symplectic_euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$A$15:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$C$15:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.367993145072397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9621623606899898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3844963885699824</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2876082503026351</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1964105733160419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1174635669120372</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.064644596168534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0339721772900117</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0174207119015595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0128-410F-9646-765E6C54BF9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergenceRate0!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>midpoint</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$A$15:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$D$15:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.367993145072397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9621623606899898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3844963885699824</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2876082503026351</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1964105733160419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1174635669120372</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.064644596168534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0339721772900117</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0174207119015595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0128-410F-9646-765E6C54BF9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergenceRate0!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>backwards_euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$A$15:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$E$15:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.2178599574434541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4769067945233889</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6584234539550222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3860374072635546</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2276364825668964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1265047356305613</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0671006966717516</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0346141486775127</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0175849272761492</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0128-410F-9646-765E6C54BF9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="590233712"/>
+        <c:axId val="590230104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="590233712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590230104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="590230104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590233712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3133,6 +5944,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4682,6 +7653,2070 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5306,6 +10341,136 @@
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5626,8 +10791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6094,8 +11259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="A1:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6582,7 +11747,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="E24" sqref="A1:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7020,4 +12185,1395 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-2.6501800000000002</v>
+      </c>
+      <c r="C3" s="1">
+        <v>24.231999999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>24.231999999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-2.6501800000000002</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.180979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-1.3250900000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-1.3250900000000001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.78444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-0.66254599999999997</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.24117</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.24117</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-0.66254599999999997</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.93162199999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-0.33127299999999998</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-0.13769500000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-0.13769500000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-0.33127299999999998</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.340947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>3.125E-2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-0.16563600000000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-0.121286</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-0.121286</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-0.16563600000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.102173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1.5630000000000002E-2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-8.2818199999999995E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-7.2235999999999995E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-7.2235999999999995E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-8.2818199999999995E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7.8573099999999993E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7.8100000000000001E-3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-4.1409099999999997E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-3.8826699999999999E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-3.8826699999999999E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-4.1409099999999997E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-3.1955600000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>3.9100000000000003E-3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-2.07046E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-2.0066899999999999E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-2.0066899999999999E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-2.07046E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-4.9914500000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1.9499999999999999E-3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-1.03523E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-1.0193799999999999E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-1.0193799999999999E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-1.03523E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-5.8394700000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>9.7999999999999997E-4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-5.1761400000000001E-3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-5.1366500000000004E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-5.1366500000000004E-3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-5.1761400000000001E-3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-6.2508599999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-0.412742</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-1.0752900000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-1.0752900000000001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-1.73783</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-2.5176400000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-0.206371</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-0.37200699999999998</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-0.37200699999999998</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-0.53764400000000001</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-0.13159599999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-0.103185</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-0.144594</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-0.144594</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-0.186004</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-2.20705E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-5.1592699999999998E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-6.1945E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-6.1945E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-7.2297200000000006E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.65518E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>3.125E-2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-2.5796300000000001E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-2.8384400000000001E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-2.8384400000000001E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-3.09725E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4.0345199999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1.5630000000000002E-2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>-1.28982E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-1.35452E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-1.35452E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-1.41922E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4.3901299999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>7.8100000000000001E-3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>-6.4490900000000002E-3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-6.6108399999999998E-3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-6.6108399999999998E-3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-6.7725900000000002E-3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4.4797099999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>3.9100000000000003E-3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>-3.2245400000000001E-3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-3.2649799999999998E-3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-3.2649799999999998E-3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-3.3054199999999999E-3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4.5021499999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1.9499999999999999E-3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>-1.6122700000000001E-3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-1.6223800000000001E-3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-1.6223800000000001E-3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-1.6324899999999999E-3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4.5077600000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>9.7999999999999997E-4</v>
+      </c>
+      <c r="B24" s="1">
+        <v>-8.0613600000000005E-4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>-8.0866300000000005E-4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-8.0866300000000005E-4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-8.1119099999999995E-4</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4.5091699999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F3 - 'Measurements(no damping)'!B3)</f>
+        <v>2.8311590000000004</v>
+      </c>
+      <c r="C3" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F3 - 'Measurements(no damping)'!C3)</f>
+        <v>24.051020999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F3 - 'Measurements(no damping)'!D3)</f>
+        <v>24.051020999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F3 - 'Measurements(no damping)'!E3)</f>
+        <v>2.8311590000000004</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.25</v>
+      </c>
+      <c r="B4" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F4 - 'Measurements(no damping)'!B4)</f>
+        <v>3.1095300000000003</v>
+      </c>
+      <c r="C4" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F4 - 'Measurements(no damping)'!C4)</f>
+        <v>1.5405600000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F4 - 'Measurements(no damping)'!D4)</f>
+        <v>1.5405600000000002</v>
+      </c>
+      <c r="E4" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F4 - 'Measurements(no damping)'!E4)</f>
+        <v>3.1095300000000003</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.125</v>
+      </c>
+      <c r="B5" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F5 - 'Measurements(no damping)'!B5)</f>
+        <v>1.5941679999999998</v>
+      </c>
+      <c r="C5" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F5 - 'Measurements(no damping)'!C5)</f>
+        <v>0.69045199999999995</v>
+      </c>
+      <c r="D5" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F5 - 'Measurements(no damping)'!D5)</f>
+        <v>0.69045199999999995</v>
+      </c>
+      <c r="E5" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F5 - 'Measurements(no damping)'!E5)</f>
+        <v>1.5941679999999998</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="B6" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F6 - 'Measurements(no damping)'!B6)</f>
+        <v>0.67222000000000004</v>
+      </c>
+      <c r="C6" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F6 - 'Measurements(no damping)'!C6)</f>
+        <v>0.47864200000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F6 - 'Measurements(no damping)'!D6)</f>
+        <v>0.47864200000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F6 - 'Measurements(no damping)'!E6)</f>
+        <v>0.67222000000000004</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="B7" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F7 - 'Measurements(no damping)'!B7)</f>
+        <v>0.26780900000000002</v>
+      </c>
+      <c r="C7" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F7 - 'Measurements(no damping)'!C7)</f>
+        <v>0.22345900000000002</v>
+      </c>
+      <c r="D7" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F7 - 'Measurements(no damping)'!D7)</f>
+        <v>0.22345900000000002</v>
+      </c>
+      <c r="E7" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F7 - 'Measurements(no damping)'!E7)</f>
+        <v>0.26780900000000002</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.5630000000000002E-2</v>
+      </c>
+      <c r="B8" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F8 - 'Measurements(no damping)'!B8)</f>
+        <v>9.0675509999999987E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F8 - 'Measurements(no damping)'!C8)</f>
+        <v>8.0093310000000001E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F8 - 'Measurements(no damping)'!D8)</f>
+        <v>8.0093310000000001E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F8 - 'Measurements(no damping)'!E8)</f>
+        <v>9.0675509999999987E-2</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7.8100000000000001E-3</v>
+      </c>
+      <c r="B9" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F9 - 'Measurements(no damping)'!B9)</f>
+        <v>9.4534999999999966E-3</v>
+      </c>
+      <c r="C9" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F9 - 'Measurements(no damping)'!C9)</f>
+        <v>6.871099999999998E-3</v>
+      </c>
+      <c r="D9" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F9 - 'Measurements(no damping)'!D9)</f>
+        <v>6.871099999999998E-3</v>
+      </c>
+      <c r="E9" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F9 - 'Measurements(no damping)'!E9)</f>
+        <v>9.4534999999999966E-3</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3.9100000000000003E-3</v>
+      </c>
+      <c r="B10" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F10 - 'Measurements(no damping)'!B10)</f>
+        <v>2.92099E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F10 - 'Measurements(no damping)'!C10)</f>
+        <v>2.9847600000000002E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F10 - 'Measurements(no damping)'!D10)</f>
+        <v>2.9847600000000002E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F10 - 'Measurements(no damping)'!E10)</f>
+        <v>2.92099E-2</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.9499999999999999E-3</v>
+      </c>
+      <c r="B11" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F11 - 'Measurements(no damping)'!B11)</f>
+        <v>4.8042399999999999E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F11 - 'Measurements(no damping)'!C11)</f>
+        <v>4.8200900000000005E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F11 - 'Measurements(no damping)'!D11)</f>
+        <v>4.8200900000000005E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F11 - 'Measurements(no damping)'!E11)</f>
+        <v>4.8042399999999999E-2</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9.7999999999999997E-4</v>
+      </c>
+      <c r="B12" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F12 - 'Measurements(no damping)'!B12)</f>
+        <v>5.7332459999999995E-2</v>
+      </c>
+      <c r="C12" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F12 - 'Measurements(no damping)'!C12)</f>
+        <v>5.7371949999999998E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F12 - 'Measurements(no damping)'!D12)</f>
+        <v>5.7371949999999998E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F12 - 'Measurements(no damping)'!E12)</f>
+        <v>5.7332459999999995E-2</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.5</v>
+      </c>
+      <c r="B15" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F15 - 'Measurements(no damping)'!B15)</f>
+        <v>0.38756560000000001</v>
+      </c>
+      <c r="C15" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F15 - 'Measurements(no damping)'!C15)</f>
+        <v>1.0501136</v>
+      </c>
+      <c r="D15" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F15 - 'Measurements(no damping)'!D15)</f>
+        <v>1.0501136</v>
+      </c>
+      <c r="E15" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F15 - 'Measurements(no damping)'!E15)</f>
+        <v>1.7126535999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.25</v>
+      </c>
+      <c r="B16" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F16 - 'Measurements(no damping)'!B16)</f>
+        <v>7.4775000000000008E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F16 - 'Measurements(no damping)'!C16)</f>
+        <v>0.24041099999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F16 - 'Measurements(no damping)'!D16)</f>
+        <v>0.24041099999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F16 - 'Measurements(no damping)'!E16)</f>
+        <v>0.40604800000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.125</v>
+      </c>
+      <c r="B17" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F17 - 'Measurements(no damping)'!B17)</f>
+        <v>8.1114500000000006E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F17 - 'Measurements(no damping)'!C17)</f>
+        <v>0.12252350000000001</v>
+      </c>
+      <c r="D17" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F17 - 'Measurements(no damping)'!D17)</f>
+        <v>0.12252350000000001</v>
+      </c>
+      <c r="E17" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F17 - 'Measurements(no damping)'!E17)</f>
+        <v>0.16393350000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6.25E-2</v>
+      </c>
+      <c r="B18" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F18 - 'Measurements(no damping)'!B18)</f>
+        <v>7.8144500000000006E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F18 - 'Measurements(no damping)'!C18)</f>
+        <v>8.84968E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F18 - 'Measurements(no damping)'!D18)</f>
+        <v>8.84968E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F18 - 'Measurements(no damping)'!E18)</f>
+        <v>9.8849000000000006E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3.125E-2</v>
+      </c>
+      <c r="B19" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F19 - 'Measurements(no damping)'!B19)</f>
+        <v>6.6141499999999992E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F19 - 'Measurements(no damping)'!C19)</f>
+        <v>6.8729600000000002E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F19 - 'Measurements(no damping)'!D19)</f>
+        <v>6.8729600000000002E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F19 - 'Measurements(no damping)'!E19)</f>
+        <v>7.1317699999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1.5630000000000002E-2</v>
+      </c>
+      <c r="B20" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F20 - 'Measurements(no damping)'!B20)</f>
+        <v>5.6799499999999996E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F20 - 'Measurements(no damping)'!C20)</f>
+        <v>5.7446499999999998E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F20 - 'Measurements(no damping)'!D20)</f>
+        <v>5.7446499999999998E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F20 - 'Measurements(no damping)'!E20)</f>
+        <v>5.8093499999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7.8100000000000001E-3</v>
+      </c>
+      <c r="B21" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F21 - 'Measurements(no damping)'!B21)</f>
+        <v>5.1246189999999997E-2</v>
+      </c>
+      <c r="C21" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F21 - 'Measurements(no damping)'!C21)</f>
+        <v>5.1407939999999999E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F21 - 'Measurements(no damping)'!D21)</f>
+        <v>5.1407939999999999E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F21 - 'Measurements(no damping)'!E21)</f>
+        <v>5.1569690000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3.9100000000000003E-3</v>
+      </c>
+      <c r="B22" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F22 - 'Measurements(no damping)'!B22)</f>
+        <v>4.8246039999999997E-2</v>
+      </c>
+      <c r="C22" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F22 - 'Measurements(no damping)'!C22)</f>
+        <v>4.828648E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F22 - 'Measurements(no damping)'!D22)</f>
+        <v>4.828648E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F22 - 'Measurements(no damping)'!E22)</f>
+        <v>4.8326919999999995E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1.9499999999999999E-3</v>
+      </c>
+      <c r="B23" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F23 - 'Measurements(no damping)'!B23)</f>
+        <v>4.6689870000000001E-2</v>
+      </c>
+      <c r="C23" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F23 - 'Measurements(no damping)'!C23)</f>
+        <v>4.6699980000000002E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F23 - 'Measurements(no damping)'!D23)</f>
+        <v>4.6699980000000002E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F23 - 'Measurements(no damping)'!E23)</f>
+        <v>4.6710090000000003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>9.7999999999999997E-4</v>
+      </c>
+      <c r="B24" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F24 - 'Measurements(no damping)'!B24)</f>
+        <v>4.5897835999999997E-2</v>
+      </c>
+      <c r="C24" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F24 - 'Measurements(no damping)'!C24)</f>
+        <v>4.5900363E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F24 - 'Measurements(no damping)'!D24)</f>
+        <v>4.5900363E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <f xml:space="preserve"> ABS('Measurements(no damping)'!$F24 - 'Measurements(no damping)'!E24)</f>
+        <v>4.5902891000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <f>Error0!B3/Error0!B4</f>
+        <v>0.91047811083990193</v>
+      </c>
+      <c r="C3">
+        <f>Error0!C3/Error0!C4</f>
+        <v>15.611869060601338</v>
+      </c>
+      <c r="D3">
+        <f>Error0!D3/Error0!D4</f>
+        <v>15.611869060601338</v>
+      </c>
+      <c r="E3">
+        <f>Error0!E3/Error0!E4</f>
+        <v>0.91047811083990193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.25</v>
+      </c>
+      <c r="B4">
+        <f>Error0!B4/Error0!B5</f>
+        <v>1.9505660633007316</v>
+      </c>
+      <c r="C4">
+        <f>Error0!C4/Error0!C5</f>
+        <v>2.2312340321991972</v>
+      </c>
+      <c r="D4">
+        <f>Error0!D4/Error0!D5</f>
+        <v>2.2312340321991972</v>
+      </c>
+      <c r="E4">
+        <f>Error0!E4/Error0!E5</f>
+        <v>1.9505660633007316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.125</v>
+      </c>
+      <c r="B5">
+        <f>Error0!B5/Error0!B6</f>
+        <v>2.3714974264377728</v>
+      </c>
+      <c r="C5">
+        <f>Error0!C5/Error0!C6</f>
+        <v>1.4425228040999325</v>
+      </c>
+      <c r="D5">
+        <f>Error0!D5/Error0!D6</f>
+        <v>1.4425228040999325</v>
+      </c>
+      <c r="E5">
+        <f>Error0!E5/Error0!E6</f>
+        <v>2.3714974264377728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="B6">
+        <f>Error0!B6/Error0!B7</f>
+        <v>2.5100724770265375</v>
+      </c>
+      <c r="C6">
+        <f>Error0!C6/Error0!C7</f>
+        <v>2.1419678777762363</v>
+      </c>
+      <c r="D6">
+        <f>Error0!D6/Error0!D7</f>
+        <v>2.1419678777762363</v>
+      </c>
+      <c r="E6">
+        <f>Error0!E6/Error0!E7</f>
+        <v>2.5100724770265375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="B7">
+        <f>Error0!B7/Error0!B8</f>
+        <v>2.9534876616630008</v>
+      </c>
+      <c r="C7">
+        <f>Error0!C7/Error0!C8</f>
+        <v>2.7899833331897512</v>
+      </c>
+      <c r="D7">
+        <f>Error0!D7/Error0!D8</f>
+        <v>2.7899833331897512</v>
+      </c>
+      <c r="E7">
+        <f>Error0!E7/Error0!E8</f>
+        <v>2.9534876616630008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.5630000000000002E-2</v>
+      </c>
+      <c r="B8">
+        <f>Error0!B8/Error0!B9</f>
+        <v>9.591739567356008</v>
+      </c>
+      <c r="C8">
+        <f>Error0!C8/Error0!C9</f>
+        <v>11.656548442025297</v>
+      </c>
+      <c r="D8">
+        <f>Error0!D8/Error0!D9</f>
+        <v>11.656548442025297</v>
+      </c>
+      <c r="E8">
+        <f>Error0!E8/Error0!E9</f>
+        <v>9.591739567356008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7.8100000000000001E-3</v>
+      </c>
+      <c r="B9">
+        <f>Error0!B9/Error0!B10</f>
+        <v>0.32364027264728729</v>
+      </c>
+      <c r="C9">
+        <f>Error0!C9/Error0!C10</f>
+        <v>0.23020611372438646</v>
+      </c>
+      <c r="D9">
+        <f>Error0!D9/Error0!D10</f>
+        <v>0.23020611372438646</v>
+      </c>
+      <c r="E9">
+        <f>Error0!E9/Error0!E10</f>
+        <v>0.32364027264728729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3.9100000000000003E-3</v>
+      </c>
+      <c r="B10">
+        <f>Error0!B10/Error0!B11</f>
+        <v>0.60800251444557307</v>
+      </c>
+      <c r="C10">
+        <f>Error0!C10/Error0!C11</f>
+        <v>0.619233250831416</v>
+      </c>
+      <c r="D10">
+        <f>Error0!D10/Error0!D11</f>
+        <v>0.619233250831416</v>
+      </c>
+      <c r="E10">
+        <f>Error0!E10/Error0!E11</f>
+        <v>0.60800251444557307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.9499999999999999E-3</v>
+      </c>
+      <c r="B11">
+        <f>Error0!B11/Error0!B12</f>
+        <v>0.83796160150811605</v>
+      </c>
+      <c r="C11">
+        <f>Error0!C11/Error0!C12</f>
+        <v>0.84014749367940267</v>
+      </c>
+      <c r="D11">
+        <f>Error0!D11/Error0!D12</f>
+        <v>0.84014749367940267</v>
+      </c>
+      <c r="E11">
+        <f>Error0!E11/Error0!E12</f>
+        <v>0.83796160150811605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9.7999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.5</v>
+      </c>
+      <c r="B15">
+        <f>Error0!B15/Error0!B16</f>
+        <v>5.1830906051487791</v>
+      </c>
+      <c r="C15">
+        <f>Error0!C15/Error0!C16</f>
+        <v>4.367993145072397</v>
+      </c>
+      <c r="D15">
+        <f>Error0!D15/Error0!D16</f>
+        <v>4.367993145072397</v>
+      </c>
+      <c r="E15">
+        <f>Error0!E15/Error0!E16</f>
+        <v>4.2178599574434541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.25</v>
+      </c>
+      <c r="B16">
+        <f>Error0!B16/Error0!B17</f>
+        <v>0.92184504620012453</v>
+      </c>
+      <c r="C16">
+        <f>Error0!C16/Error0!C17</f>
+        <v>1.9621623606899898</v>
+      </c>
+      <c r="D16">
+        <f>Error0!D16/Error0!D17</f>
+        <v>1.9621623606899898</v>
+      </c>
+      <c r="E16">
+        <f>Error0!E16/Error0!E17</f>
+        <v>2.4769067945233889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.125</v>
+      </c>
+      <c r="B17">
+        <f>Error0!B17/Error0!B18</f>
+        <v>1.0380065135742118</v>
+      </c>
+      <c r="C17">
+        <f>Error0!C17/Error0!C18</f>
+        <v>1.3844963885699824</v>
+      </c>
+      <c r="D17">
+        <f>Error0!D17/Error0!D18</f>
+        <v>1.3844963885699824</v>
+      </c>
+      <c r="E17">
+        <f>Error0!E17/Error0!E18</f>
+        <v>1.6584234539550222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6.25E-2</v>
+      </c>
+      <c r="B18">
+        <f>Error0!B18/Error0!B19</f>
+        <v>1.181474565892821</v>
+      </c>
+      <c r="C18">
+        <f>Error0!C18/Error0!C19</f>
+        <v>1.2876082503026351</v>
+      </c>
+      <c r="D18">
+        <f>Error0!D18/Error0!D19</f>
+        <v>1.2876082503026351</v>
+      </c>
+      <c r="E18">
+        <f>Error0!E18/Error0!E19</f>
+        <v>1.3860374072635546</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3.125E-2</v>
+      </c>
+      <c r="B19">
+        <f>Error0!B19/Error0!B20</f>
+        <v>1.1644732788140739</v>
+      </c>
+      <c r="C19">
+        <f>Error0!C19/Error0!C20</f>
+        <v>1.1964105733160419</v>
+      </c>
+      <c r="D19">
+        <f>Error0!D19/Error0!D20</f>
+        <v>1.1964105733160419</v>
+      </c>
+      <c r="E19">
+        <f>Error0!E19/Error0!E20</f>
+        <v>1.2276364825668964</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1.5630000000000002E-2</v>
+      </c>
+      <c r="B20">
+        <f>Error0!B20/Error0!B21</f>
+        <v>1.1083653243294769</v>
+      </c>
+      <c r="C20">
+        <f>Error0!C20/Error0!C21</f>
+        <v>1.1174635669120372</v>
+      </c>
+      <c r="D20">
+        <f>Error0!D20/Error0!D21</f>
+        <v>1.1174635669120372</v>
+      </c>
+      <c r="E20">
+        <f>Error0!E20/Error0!E21</f>
+        <v>1.1265047356305613</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7.8100000000000001E-3</v>
+      </c>
+      <c r="B21">
+        <f>Error0!B21/Error0!B22</f>
+        <v>1.0621843782411986</v>
+      </c>
+      <c r="C21">
+        <f>Error0!C21/Error0!C22</f>
+        <v>1.064644596168534</v>
+      </c>
+      <c r="D21">
+        <f>Error0!D21/Error0!D22</f>
+        <v>1.064644596168534</v>
+      </c>
+      <c r="E21">
+        <f>Error0!E21/Error0!E22</f>
+        <v>1.0671006966717516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3.9100000000000003E-3</v>
+      </c>
+      <c r="B22">
+        <f>Error0!B22/Error0!B23</f>
+        <v>1.0333299278837142</v>
+      </c>
+      <c r="C22">
+        <f>Error0!C22/Error0!C23</f>
+        <v>1.0339721772900117</v>
+      </c>
+      <c r="D22">
+        <f>Error0!D22/Error0!D23</f>
+        <v>1.0339721772900117</v>
+      </c>
+      <c r="E22">
+        <f>Error0!E22/Error0!E23</f>
+        <v>1.0346141486775127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1.9499999999999999E-3</v>
+      </c>
+      <c r="B23">
+        <f>Error0!B23/Error0!B24</f>
+        <v>1.0172564562738864</v>
+      </c>
+      <c r="C23">
+        <f>Error0!C23/Error0!C24</f>
+        <v>1.0174207119015595</v>
+      </c>
+      <c r="D23">
+        <f>Error0!D23/Error0!D24</f>
+        <v>1.0174207119015595</v>
+      </c>
+      <c r="E23">
+        <f>Error0!E23/Error0!E24</f>
+        <v>1.0175849272761492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>9.7999999999999997E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Measurements/error_measurements.xlsx
+++ b/Measurements/error_measurements.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22470" windowHeight="7965" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22470" windowHeight="7965"/>
   </bookViews>
   <sheets>
-    <sheet name="Measurements" sheetId="1" r:id="rId1"/>
-    <sheet name="Error" sheetId="2" r:id="rId2"/>
-    <sheet name="ConvergenceRate" sheetId="3" r:id="rId3"/>
-    <sheet name="Measurements(no damping)" sheetId="4" r:id="rId4"/>
-    <sheet name="Error0" sheetId="5" r:id="rId5"/>
-    <sheet name="ConvergenceRate0" sheetId="6" r:id="rId6"/>
+    <sheet name="Conclusions" sheetId="7" r:id="rId1"/>
+    <sheet name="Measurements" sheetId="1" r:id="rId2"/>
+    <sheet name="Error" sheetId="2" r:id="rId3"/>
+    <sheet name="ConvergenceRate" sheetId="3" r:id="rId4"/>
+    <sheet name="Measurements(no damping)" sheetId="4" r:id="rId5"/>
+    <sheet name="Error0" sheetId="5" r:id="rId6"/>
+    <sheet name="ConvergenceRate0" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="12">
   <si>
     <t>step</t>
   </si>
@@ -53,6 +54,18 @@
   </si>
   <si>
     <t>displacement:</t>
+  </si>
+  <si>
+    <t>Measurements without damping:</t>
+  </si>
+  <si>
+    <t>Average convergence rates:</t>
+  </si>
+  <si>
+    <t>backward_euler</t>
+  </si>
+  <si>
+    <t>Measurements with damping:</t>
   </si>
 </sst>
 </file>
@@ -143,6 +156,2081 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Displacement Convergence Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergenceRate0!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$A$15:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$B$15:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.1830906051487791</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92184504620012453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0380065135742118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.181474565892821</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1644732788140739</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1083653243294769</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0621843782411986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0333299278837142</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0172564562738864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D302-45D7-87D7-6F6725A31742}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergenceRate0!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>symplectic_euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$A$15:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$C$15:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.367993145072397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9621623606899898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3844963885699824</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2876082503026351</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1964105733160419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1174635669120372</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.064644596168534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0339721772900117</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0174207119015595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D302-45D7-87D7-6F6725A31742}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergenceRate0!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>midpoint</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$A$15:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$D$15:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.367993145072397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9621623606899898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3844963885699824</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2876082503026351</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1964105733160419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1174635669120372</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.064644596168534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0339721772900117</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0174207119015595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D302-45D7-87D7-6F6725A31742}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergenceRate0!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>backwards_euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$A$15:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$E$15:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.2178599574434541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4769067945233889</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6584234539550222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3860374072635546</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2276364825668964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1265047356305613</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0671006966717516</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0346141486775127</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0175849272761492</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D302-45D7-87D7-6F6725A31742}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="590233712"/>
+        <c:axId val="590230104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="590233712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590230104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="590230104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590233712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Displacement Convergence Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergenceRate0!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$A$15:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$B$15:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.1830906051487791</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92184504620012453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0380065135742118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.181474565892821</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1644732788140739</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1083653243294769</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0621843782411986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0333299278837142</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0172564562738864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0128-410F-9646-765E6C54BF9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergenceRate0!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>symplectic_euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$A$15:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$C$15:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.367993145072397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9621623606899898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3844963885699824</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2876082503026351</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1964105733160419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1174635669120372</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.064644596168534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0339721772900117</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0174207119015595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0128-410F-9646-765E6C54BF9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergenceRate0!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>midpoint</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$A$15:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$D$15:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.367993145072397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9621623606899898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3844963885699824</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2876082503026351</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1964105733160419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1174635669120372</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.064644596168534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0339721772900117</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0174207119015595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0128-410F-9646-765E6C54BF9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergenceRate0!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>backwards_euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$A$15:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$E$15:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.2178599574434541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4769067945233889</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6584234539550222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3860374072635546</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2276364825668964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1265047356305613</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0671006966717516</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0346141486775127</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0175849272761492</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0128-410F-9646-765E6C54BF9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="590233712"/>
+        <c:axId val="590230104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="590233712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590230104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="590230104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590233712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Displacement Convergence</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Rate</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergenceRate!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ConvergenceRate!$A$15:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergenceRate!$B$15:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.9121635661844052</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8767696083598091</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4383548441520555</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3856682197063479</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3095855685904616</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2088458181759445</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1240758462908886</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0681356266724167</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0357769900520144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-961A-4797-9C8E-53E58063D380}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergenceRate!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>symplectic_euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ConvergenceRate!$A$15:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergenceRate!$C$15:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.1593834685196582</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1341929422972594</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5594529441465474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4298401955476616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3246423086092147</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2135856022325531</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1254492454704474</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0685096284094973</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0358751243294626</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-961A-4797-9C8E-53E58063D380}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergenceRate!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>midpoint</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ConvergenceRate!$A$15:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergenceRate!$D$15:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.1593834685196582</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1341929422972594</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5594529441465474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4298401955476616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3246423086092147</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2135856022325531</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1254492454704474</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0685096284094973</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0358751243294626</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-961A-4797-9C8E-53E58063D380}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergenceRate!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>backwards_euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ConvergenceRate!$A$15:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergenceRate!$E$15:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.315037213773719</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3359519004968079</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6696191031804153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4725482885927947</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3395327778382329</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2183040106665757</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1268218665602456</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0688835345946024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0359732521250589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-961A-4797-9C8E-53E58063D380}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="459092320"/>
+        <c:axId val="459093632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="459092320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459093632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="459093632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459092320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Velocity Error</a:t>
             </a:r>
           </a:p>
@@ -255,34 +2343,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.8311590000000004</c:v>
+                  <c:v>1.2820770000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1095300000000003</c:v>
+                  <c:v>1.486478</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5941679999999998</c:v>
+                  <c:v>1.084322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67222000000000004</c:v>
+                  <c:v>0.67754539999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26780900000000002</c:v>
+                  <c:v>0.45642269999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.0675509999999987E-2</c:v>
+                  <c:v>0.34888439999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.4534999999999966E-3</c:v>
+                  <c:v>0.29694167999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.92099E-2</c:v>
+                  <c:v>0.27156484000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8042399999999999E-2</c:v>
+                  <c:v>0.25904291999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7332459999999995E-2</c:v>
+                  <c:v>0.25282645999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -366,34 +2454,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>24.051020999999999</c:v>
+                  <c:v>12.701898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5405600000000002</c:v>
+                  <c:v>1.5513399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69045199999999995</c:v>
+                  <c:v>0.38213999999999992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47864200000000001</c:v>
+                  <c:v>0.50915909999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22345900000000002</c:v>
+                  <c:v>0.41522102999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0093310000000001E-2</c:v>
+                  <c:v>0.33869579</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.871099999999998E-3</c:v>
+                  <c:v>0.29440851999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9847600000000002E-2</c:v>
+                  <c:v>0.27093330000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8200900000000005E-2</c:v>
+                  <c:v>0.25888524999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7371949999999998E-2</c:v>
+                  <c:v>0.25278707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -477,34 +2565,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>24.051020999999999</c:v>
+                  <c:v>13.434998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5405600000000002</c:v>
+                  <c:v>1.7346099999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69045199999999995</c:v>
+                  <c:v>0.3363219999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47864200000000001</c:v>
+                  <c:v>0.49770500000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22345900000000002</c:v>
+                  <c:v>0.41235738</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0093310000000001E-2</c:v>
+                  <c:v>0.33797988000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.871099999999998E-3</c:v>
+                  <c:v>0.29422953999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9847600000000002E-2</c:v>
+                  <c:v>0.27088855000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8200900000000005E-2</c:v>
+                  <c:v>0.25887406999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7371949999999998E-2</c:v>
+                  <c:v>0.25278426999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -588,34 +2676,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.8311590000000004</c:v>
+                  <c:v>1.2820770000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1095300000000003</c:v>
+                  <c:v>1.486478</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5941679999999998</c:v>
+                  <c:v>1.084322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67222000000000004</c:v>
+                  <c:v>0.67754539999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26780900000000002</c:v>
+                  <c:v>0.45642269999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.0675509999999987E-2</c:v>
+                  <c:v>0.34888439999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.4534999999999966E-3</c:v>
+                  <c:v>0.29694167999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.92099E-2</c:v>
+                  <c:v>0.27156484000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8042399999999999E-2</c:v>
+                  <c:v>0.25904291999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7332459999999995E-2</c:v>
+                  <c:v>0.25282645999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -822,7 +2910,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -969,34 +3057,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.38756560000000001</c:v>
+                  <c:v>0.36297760000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4775000000000008E-2</c:v>
+                  <c:v>0.1246419</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1114500000000006E-2</c:v>
+                  <c:v>6.6413E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.8144500000000006E-2</c:v>
+                  <c:v>4.6172890000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6141499999999992E-2</c:v>
+                  <c:v>3.3321750000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6799499999999996E-2</c:v>
+                  <c:v>2.5444500000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1246189999999997E-2</c:v>
+                  <c:v>2.1048589999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8246039999999997E-2</c:v>
+                  <c:v>1.8725240000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6689870000000001E-2</c:v>
+                  <c:v>1.7530769999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5897835999999997E-2</c:v>
+                  <c:v>1.6925236E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1080,34 +3168,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0501136</c:v>
+                  <c:v>0.50959559999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24041099999999999</c:v>
+                  <c:v>0.16129589999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12252350000000001</c:v>
+                  <c:v>7.5577000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.84968E-2</c:v>
+                  <c:v>4.846379E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8729600000000002E-2</c:v>
+                  <c:v>3.3894550000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.7446499999999998E-2</c:v>
+                  <c:v>2.5587699999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1407939999999999E-2</c:v>
+                  <c:v>2.108438E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.828648E-2</c:v>
+                  <c:v>1.8734189999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6699980000000002E-2</c:v>
+                  <c:v>1.7533009999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5900363E-2</c:v>
+                  <c:v>1.6925795E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1191,34 +3279,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0501136</c:v>
+                  <c:v>0.50959559999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24041099999999999</c:v>
+                  <c:v>0.16129589999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12252350000000001</c:v>
+                  <c:v>7.5577000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.84968E-2</c:v>
+                  <c:v>4.846379E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8729600000000002E-2</c:v>
+                  <c:v>3.3894550000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.7446499999999998E-2</c:v>
+                  <c:v>2.5587699999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1407939999999999E-2</c:v>
+                  <c:v>2.108438E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.828648E-2</c:v>
+                  <c:v>1.8734189999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6699980000000002E-2</c:v>
+                  <c:v>1.7533009999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5900363E-2</c:v>
+                  <c:v>1.6925795E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1302,34 +3390,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.7126535999999999</c:v>
+                  <c:v>0.65621459999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40604800000000002</c:v>
+                  <c:v>0.19795089999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16393350000000001</c:v>
+                  <c:v>8.4740999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.8849000000000006E-2</c:v>
+                  <c:v>5.0754690000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1317699999999998E-2</c:v>
+                  <c:v>3.4467249999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8093499999999999E-2</c:v>
+                  <c:v>2.5730799999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1569690000000001E-2</c:v>
+                  <c:v>2.1120179999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8326919999999995E-2</c:v>
+                  <c:v>1.8743139999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6710090000000003E-2</c:v>
+                  <c:v>1.7535249999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5902891000000001E-2</c:v>
+                  <c:v>1.6926354000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1536,7 +3624,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1680,31 +3768,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.91047811083990193</c:v>
+                  <c:v>0.86249308768780986</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9505660633007316</c:v>
+                  <c:v>1.3708824500471262</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3714974264377728</c:v>
+                  <c:v>1.600368034378213</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5100724770265375</c:v>
+                  <c:v>1.4844691116370856</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9534876616630008</c:v>
+                  <c:v>1.3082347620013963</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.591739567356008</c:v>
+                  <c:v>1.1749256621704303</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32364027264728729</c:v>
+                  <c:v>1.0934467068711839</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60800251444557307</c:v>
+                  <c:v>1.0483391709759915</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.83796160150811605</c:v>
+                  <c:v>1.0245878536605701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1785,31 +3873,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>15.611869060601338</c:v>
+                  <c:v>8.1876945092629594</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2312340321991972</c:v>
+                  <c:v>4.0596116606479304</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4425228040999325</c:v>
+                  <c:v>0.75053161182820838</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1419678777762363</c:v>
+                  <c:v>1.2262363011815658</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7899833331897512</c:v>
+                  <c:v>1.2259409247454773</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.656548442025297</c:v>
+                  <c:v>1.1504279495715684</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23020611372438646</c:v>
+                  <c:v>1.0866457537703926</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.619233250831416</c:v>
+                  <c:v>1.0465381863200012</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.84014749367940267</c:v>
+                  <c:v>1.0241237813310624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1890,31 +3978,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>15.611869060601338</c:v>
+                  <c:v>7.7452557058935447</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2312340321991972</c:v>
+                  <c:v>5.1575870742919001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4425228040999325</c:v>
+                  <c:v>0.67574567263740548</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1419678777762363</c:v>
+                  <c:v>1.2069748818367214</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7899833331897512</c:v>
+                  <c:v>1.2200648748676992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.656548442025297</c:v>
+                  <c:v>1.1486945872260144</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23020611372438646</c:v>
+                  <c:v>1.0861645499597525</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.619233250831416</c:v>
+                  <c:v>1.0464105192149993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.84014749367940267</c:v>
+                  <c:v>1.0240908977445471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1995,31 +4083,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.91047811083990193</c:v>
+                  <c:v>0.86249308768780986</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9505660633007316</c:v>
+                  <c:v>1.3708824500471262</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3714974264377728</c:v>
+                  <c:v>1.600368034378213</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5100724770265375</c:v>
+                  <c:v>1.4844691116370856</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9534876616630008</c:v>
+                  <c:v>1.3082347620013963</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.591739567356008</c:v>
+                  <c:v>1.1749256621704303</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32364027264728729</c:v>
+                  <c:v>1.0934467068711839</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60800251444557307</c:v>
+                  <c:v>1.0483391709759915</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.83796160150811605</c:v>
+                  <c:v>1.0245878536605701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2281,7 +4369,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2430,31 +4518,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.1830906051487791</c:v>
+                  <c:v>2.9121635661844052</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92184504620012453</c:v>
+                  <c:v>1.8767696083598091</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0380065135742118</c:v>
+                  <c:v>1.4383548441520555</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.181474565892821</c:v>
+                  <c:v>1.3856682197063479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1644732788140739</c:v>
+                  <c:v>1.3095855685904616</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1083653243294769</c:v>
+                  <c:v>1.2088458181759445</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0621843782411986</c:v>
+                  <c:v>1.1240758462908886</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0333299278837142</c:v>
+                  <c:v>1.0681356266724167</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0172564562738864</c:v>
+                  <c:v>1.0357769900520144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2535,31 +4623,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.367993145072397</c:v>
+                  <c:v>3.1593834685196582</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9621623606899898</c:v>
+                  <c:v>2.1341929422972594</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3844963885699824</c:v>
+                  <c:v>1.5594529441465474</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2876082503026351</c:v>
+                  <c:v>1.4298401955476616</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1964105733160419</c:v>
+                  <c:v>1.3246423086092147</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1174635669120372</c:v>
+                  <c:v>1.2135856022325531</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.064644596168534</c:v>
+                  <c:v>1.1254492454704474</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0339721772900117</c:v>
+                  <c:v>1.0685096284094973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0174207119015595</c:v>
+                  <c:v>1.0358751243294626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2640,31 +4728,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.367993145072397</c:v>
+                  <c:v>3.1593834685196582</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9621623606899898</c:v>
+                  <c:v>2.1341929422972594</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3844963885699824</c:v>
+                  <c:v>1.5594529441465474</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2876082503026351</c:v>
+                  <c:v>1.4298401955476616</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1964105733160419</c:v>
+                  <c:v>1.3246423086092147</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1174635669120372</c:v>
+                  <c:v>1.2135856022325531</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.064644596168534</c:v>
+                  <c:v>1.1254492454704474</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0339721772900117</c:v>
+                  <c:v>1.0685096284094973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0174207119015595</c:v>
+                  <c:v>1.0358751243294626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2745,31 +4833,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.2178599574434541</c:v>
+                  <c:v>3.315037213773719</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4769067945233889</c:v>
+                  <c:v>2.3359519004968079</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6584234539550222</c:v>
+                  <c:v>1.6696191031804153</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3860374072635546</c:v>
+                  <c:v>1.4725482885927947</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2276364825668964</c:v>
+                  <c:v>1.3395327778382329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1265047356305613</c:v>
+                  <c:v>1.2183040106665757</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0671006966717516</c:v>
+                  <c:v>1.1268218665602456</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0346141486775127</c:v>
+                  <c:v>1.0688835345946024</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0175849272761492</c:v>
+                  <c:v>1.0359732521250589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2976,7 +5064,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -3690,7 +5778,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -4404,7 +6492,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -5094,697 +7182,47 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Displacement Convergence Rate</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ConvergenceRate0!$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>euler</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>ConvergenceRate0!$A$15:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5630000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.8100000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9100000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9499999999999999E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ConvergenceRate0!$B$15:$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5.1830906051487791</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.92184504620012453</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0380065135742118</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.181474565892821</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1644732788140739</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1083653243294769</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0621843782411986</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0333299278837142</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0172564562738864</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0128-410F-9646-765E6C54BF9F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ConvergenceRate0!$C$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>symplectic_euler</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>ConvergenceRate0!$A$15:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5630000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.8100000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9100000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9499999999999999E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ConvergenceRate0!$C$15:$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4.367993145072397</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9621623606899898</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3844963885699824</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2876082503026351</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1964105733160419</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1174635669120372</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.064644596168534</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0339721772900117</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0174207119015595</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0128-410F-9646-765E6C54BF9F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ConvergenceRate0!$D$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>midpoint</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>ConvergenceRate0!$A$15:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5630000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.8100000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9100000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9499999999999999E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ConvergenceRate0!$D$15:$D$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4.367993145072397</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9621623606899898</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3844963885699824</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2876082503026351</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1964105733160419</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1174635669120372</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.064644596168534</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0339721772900117</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0174207119015595</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0128-410F-9646-765E6C54BF9F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ConvergenceRate0!$E$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>backwards_euler</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>ConvergenceRate0!$A$15:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5630000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.8100000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9100000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9499999999999999E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ConvergenceRate0!$E$15:$E$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4.2178599574434541</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.4769067945233889</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6584234539550222</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3860374072635546</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2276364825668964</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1265047356305613</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0671006966717516</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0346141486775127</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0175849272761492</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0128-410F-9646-765E6C54BF9F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="590233712"/>
-        <c:axId val="590230104"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="590233712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="590230104"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="590230104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="590233712"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6104,6 +7542,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -6620,7 +8098,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7136,7 +8614,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7652,7 +9130,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8168,7 +9646,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8684,7 +10162,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9200,7 +10678,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9716,7 +11194,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10232,7 +11710,1108 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10297,7 +12876,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10362,7 +12941,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10427,7 +13006,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10789,10 +13368,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <f>AVERAGE(ConvergenceRate0!B$15:B$23)</f>
+        <v>1.5233362329286984</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <f>AVERAGE(ConvergenceRate0!C$15:C$23)</f>
+        <v>1.6035746411359102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <f>AVERAGE(ConvergenceRate0!D$15:D$23)</f>
+        <v>1.6035746411359102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGE(ConvergenceRate0!E$15:E$23)</f>
+        <v>1.6902965115564768</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <f>AVERAGE(ConvergenceRate!B$15:B$23)</f>
+        <v>1.4843751209093716</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <f>AVERAGE(ConvergenceRate!C$15:C$23)</f>
+        <v>1.5612146066180339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <f>AVERAGE(ConvergenceRate!D$15:D$23)</f>
+        <v>1.5612146066180339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <f>AVERAGE(ConvergenceRate!E$15:E$23)</f>
+        <v>1.6202968830920501</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10826,203 +13516,203 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>0.5</v>
       </c>
       <c r="B3" s="1">
-        <v>-2.6501800000000002</v>
+        <v>-0.58647499999999997</v>
       </c>
       <c r="C3" s="1">
-        <v>24.231999999999999</v>
+        <v>13.397500000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>24.231999999999999</v>
+        <v>14.130599999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>-2.6501800000000002</v>
+        <v>-0.58647499999999997</v>
       </c>
       <c r="F3" s="1">
-        <v>0.180979</v>
+        <v>0.69560200000000005</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>0.25</v>
       </c>
       <c r="B4" s="1">
-        <v>-1.3250900000000001</v>
+        <v>-0.293238</v>
       </c>
       <c r="C4" s="1">
-        <v>3.3250000000000002</v>
+        <v>2.74458</v>
       </c>
       <c r="D4" s="1">
-        <v>3.3250000000000002</v>
+        <v>2.9278499999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>-1.3250900000000001</v>
+        <v>-0.293238</v>
       </c>
       <c r="F4" s="1">
-        <v>1.78444</v>
+        <v>1.1932400000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>0.125</v>
       </c>
       <c r="B5" s="1">
-        <v>-0.66254599999999997</v>
+        <v>-0.146619</v>
       </c>
       <c r="C5" s="1">
-        <v>0.24117</v>
+        <v>0.55556300000000003</v>
       </c>
       <c r="D5" s="1">
-        <v>0.24117</v>
+        <v>0.60138100000000005</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.66254599999999997</v>
+        <v>-0.146619</v>
       </c>
       <c r="F5" s="1">
-        <v>0.93162199999999995</v>
+        <v>0.93770299999999995</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>6.25E-2</v>
       </c>
       <c r="B6" s="1">
-        <v>-0.33127299999999998</v>
+        <v>-7.3309399999999997E-2</v>
       </c>
       <c r="C6" s="1">
-        <v>-0.13769500000000001</v>
+        <v>9.5076900000000006E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>-0.13769500000000001</v>
+        <v>0.106531</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.33127299999999998</v>
+        <v>-7.3309399999999997E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>0.340947</v>
+        <v>0.604236</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>3.125E-2</v>
       </c>
       <c r="B7" s="1">
-        <v>-0.16563600000000001</v>
+        <v>-3.6654699999999998E-2</v>
       </c>
       <c r="C7" s="1">
-        <v>-0.121286</v>
+        <v>4.54697E-3</v>
       </c>
       <c r="D7" s="1">
-        <v>-0.121286</v>
+        <v>7.4106199999999997E-3</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.16563600000000001</v>
+        <v>-3.6654699999999998E-2</v>
       </c>
       <c r="F7" s="1">
-        <v>0.102173</v>
+        <v>0.41976799999999997</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>1.5630000000000002E-2</v>
       </c>
       <c r="B8" s="1">
-        <v>-8.2818199999999995E-2</v>
+        <v>-1.8327400000000001E-2</v>
       </c>
       <c r="C8" s="1">
-        <v>-7.2235999999999995E-2</v>
+        <v>-8.1387899999999999E-3</v>
       </c>
       <c r="D8" s="1">
-        <v>-7.2235999999999995E-2</v>
+        <v>-7.4228799999999998E-3</v>
       </c>
       <c r="E8" s="1">
-        <v>-8.2818199999999995E-2</v>
+        <v>-1.8327400000000001E-2</v>
       </c>
       <c r="F8" s="1">
-        <v>7.8573099999999993E-3</v>
+        <v>0.33055699999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>7.8100000000000001E-3</v>
       </c>
       <c r="B9" s="1">
-        <v>-4.1409099999999997E-2</v>
+        <v>-9.1636800000000004E-3</v>
       </c>
       <c r="C9" s="1">
-        <v>-3.8826699999999999E-2</v>
+        <v>-6.63052E-3</v>
       </c>
       <c r="D9" s="1">
-        <v>-3.8826699999999999E-2</v>
+        <v>-6.4515400000000004E-3</v>
       </c>
       <c r="E9" s="1">
-        <v>-4.1409099999999997E-2</v>
+        <v>-9.1636800000000004E-3</v>
       </c>
       <c r="F9" s="1">
-        <v>-3.1955600000000001E-2</v>
+        <v>0.28777799999999998</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>3.9100000000000003E-3</v>
       </c>
       <c r="B10" s="1">
-        <v>-2.07046E-2</v>
+        <v>-4.5818400000000002E-3</v>
       </c>
       <c r="C10" s="1">
-        <v>-2.0066899999999999E-2</v>
+        <v>-3.9503000000000003E-3</v>
       </c>
       <c r="D10" s="1">
-        <v>-2.0066899999999999E-2</v>
+        <v>-3.9055499999999998E-3</v>
       </c>
       <c r="E10" s="1">
-        <v>-2.07046E-2</v>
+        <v>-4.5818400000000002E-3</v>
       </c>
       <c r="F10" s="1">
-        <v>-4.9914500000000001E-2</v>
+        <v>0.26698300000000003</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>1.9499999999999999E-3</v>
       </c>
       <c r="B11" s="1">
-        <v>-1.03523E-2</v>
+        <v>-2.2909200000000001E-3</v>
       </c>
       <c r="C11" s="1">
-        <v>-1.0193799999999999E-2</v>
+        <v>-2.1332500000000002E-3</v>
       </c>
       <c r="D11" s="1">
-        <v>-1.0193799999999999E-2</v>
+        <v>-2.1220700000000002E-3</v>
       </c>
       <c r="E11" s="1">
-        <v>-1.03523E-2</v>
+        <v>-2.2909200000000001E-3</v>
       </c>
       <c r="F11" s="1">
-        <v>-5.8394700000000001E-2</v>
+        <v>0.25675199999999998</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>9.7999999999999997E-4</v>
       </c>
       <c r="B12" s="1">
-        <v>-5.1761400000000001E-3</v>
+        <v>-1.1454600000000001E-3</v>
       </c>
       <c r="C12" s="1">
-        <v>-5.1366500000000004E-3</v>
+        <v>-1.10607E-3</v>
       </c>
       <c r="D12" s="1">
-        <v>-5.1366500000000004E-3</v>
+        <v>-1.1032699999999999E-3</v>
       </c>
       <c r="E12" s="1">
-        <v>-5.1761400000000001E-3</v>
+        <v>-1.1454600000000001E-3</v>
       </c>
       <c r="F12" s="1">
-        <v>-6.2508599999999997E-2</v>
+        <v>0.25168099999999999</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -11051,203 +13741,203 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>0.5</v>
       </c>
       <c r="B15" s="1">
         <v>-0.412742</v>
       </c>
       <c r="C15" s="1">
-        <v>-1.0752900000000001</v>
+        <v>-0.55935999999999997</v>
       </c>
       <c r="D15" s="1">
-        <v>-1.0752900000000001</v>
+        <v>-0.55935999999999997</v>
       </c>
       <c r="E15" s="1">
-        <v>-1.73783</v>
+        <v>-0.70597900000000002</v>
       </c>
       <c r="F15" s="1">
-        <v>-2.5176400000000002E-2</v>
+        <v>-4.97644E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>0.25</v>
       </c>
       <c r="B16" s="1">
         <v>-0.206371</v>
       </c>
       <c r="C16" s="1">
-        <v>-0.37200699999999998</v>
+        <v>-0.24302499999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-0.37200699999999998</v>
+        <v>-0.24302499999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.53764400000000001</v>
+        <v>-0.27967999999999998</v>
       </c>
       <c r="F16" s="1">
-        <v>-0.13159599999999999</v>
+        <v>-8.1729099999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>0.125</v>
       </c>
       <c r="B17" s="1">
         <v>-0.103185</v>
       </c>
       <c r="C17" s="1">
-        <v>-0.144594</v>
+        <v>-0.112349</v>
       </c>
       <c r="D17" s="1">
-        <v>-0.144594</v>
+        <v>-0.112349</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.186004</v>
+        <v>-0.121513</v>
       </c>
       <c r="F17" s="1">
-        <v>-2.20705E-2</v>
+        <v>-3.6771999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>6.25E-2</v>
       </c>
       <c r="B18" s="1">
         <v>-5.1592699999999998E-2</v>
       </c>
       <c r="C18" s="1">
-        <v>-6.1945E-2</v>
+        <v>-5.3883599999999997E-2</v>
       </c>
       <c r="D18" s="1">
-        <v>-6.1945E-2</v>
+        <v>-5.3883599999999997E-2</v>
       </c>
       <c r="E18" s="1">
-        <v>-7.2297200000000006E-2</v>
+        <v>-5.6174500000000002E-2</v>
       </c>
       <c r="F18" s="1">
-        <v>2.65518E-2</v>
+        <v>-5.4198099999999997E-3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>3.125E-2</v>
       </c>
       <c r="B19" s="1">
         <v>-2.5796300000000001E-2</v>
       </c>
       <c r="C19" s="1">
-        <v>-2.8384400000000001E-2</v>
+        <v>-2.6369099999999999E-2</v>
       </c>
       <c r="D19" s="1">
-        <v>-2.8384400000000001E-2</v>
+        <v>-2.6369099999999999E-2</v>
       </c>
       <c r="E19" s="1">
-        <v>-3.09725E-2</v>
+        <v>-2.6941799999999998E-2</v>
       </c>
       <c r="F19" s="1">
-        <v>4.0345199999999998E-2</v>
+        <v>7.5254500000000004E-3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>1.5630000000000002E-2</v>
       </c>
       <c r="B20" s="1">
         <v>-1.28982E-2</v>
       </c>
       <c r="C20" s="1">
-        <v>-1.35452E-2</v>
+        <v>-1.30414E-2</v>
       </c>
       <c r="D20" s="1">
-        <v>-1.35452E-2</v>
+        <v>-1.30414E-2</v>
       </c>
       <c r="E20" s="1">
-        <v>-1.41922E-2</v>
+        <v>-1.31845E-2</v>
       </c>
       <c r="F20" s="1">
-        <v>4.3901299999999997E-2</v>
+        <v>1.25463E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>7.8100000000000001E-3</v>
       </c>
       <c r="B21" s="1">
         <v>-6.4490900000000002E-3</v>
       </c>
       <c r="C21" s="1">
-        <v>-6.6108399999999998E-3</v>
+        <v>-6.4848800000000002E-3</v>
       </c>
       <c r="D21" s="1">
-        <v>-6.6108399999999998E-3</v>
+        <v>-6.4848800000000002E-3</v>
       </c>
       <c r="E21" s="1">
-        <v>-6.7725900000000002E-3</v>
+        <v>-6.5206800000000001E-3</v>
       </c>
       <c r="F21" s="1">
-        <v>4.4797099999999999E-2</v>
+        <v>1.45995E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>3.9100000000000003E-3</v>
       </c>
       <c r="B22" s="1">
         <v>-3.2245400000000001E-3</v>
       </c>
       <c r="C22" s="1">
-        <v>-3.2649799999999998E-3</v>
+        <v>-3.2334899999999999E-3</v>
       </c>
       <c r="D22" s="1">
-        <v>-3.2649799999999998E-3</v>
+        <v>-3.2334899999999999E-3</v>
       </c>
       <c r="E22" s="1">
-        <v>-3.3054199999999999E-3</v>
+        <v>-3.2424400000000001E-3</v>
       </c>
       <c r="F22" s="1">
-        <v>4.5021499999999999E-2</v>
+        <v>1.5500699999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>1.9499999999999999E-3</v>
       </c>
       <c r="B23" s="1">
         <v>-1.6122700000000001E-3</v>
       </c>
       <c r="C23" s="1">
-        <v>-1.6223800000000001E-3</v>
+        <v>-1.61451E-3</v>
       </c>
       <c r="D23" s="1">
-        <v>-1.6223800000000001E-3</v>
+        <v>-1.61451E-3</v>
       </c>
       <c r="E23" s="1">
-        <v>-1.6324899999999999E-3</v>
+        <v>-1.6167499999999999E-3</v>
       </c>
       <c r="F23" s="1">
-        <v>4.5077600000000002E-2</v>
+        <v>1.5918499999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>9.7999999999999997E-4</v>
       </c>
       <c r="B24" s="1">
         <v>-8.0613600000000005E-4</v>
       </c>
       <c r="C24" s="1">
-        <v>-8.0866300000000005E-4</v>
+        <v>-8.0669499999999996E-4</v>
       </c>
       <c r="D24" s="1">
-        <v>-8.0866300000000005E-4</v>
+        <v>-8.0669499999999996E-4</v>
       </c>
       <c r="E24" s="1">
-        <v>-8.1119099999999995E-4</v>
+        <v>-8.0725399999999998E-4</v>
       </c>
       <c r="F24" s="1">
-        <v>4.5091699999999998E-2</v>
+        <v>1.6119100000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -11255,7 +13945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -11293,19 +13983,19 @@
       </c>
       <c r="B3" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F3 - Measurements!B3)</f>
-        <v>2.8311590000000004</v>
+        <v>1.2820770000000001</v>
       </c>
       <c r="C3" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F3 - Measurements!C3)</f>
-        <v>24.051020999999999</v>
+        <v>12.701898</v>
       </c>
       <c r="D3" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F3 - Measurements!D3)</f>
-        <v>24.051020999999999</v>
+        <v>13.434998</v>
       </c>
       <c r="E3" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F3 - Measurements!E3)</f>
-        <v>2.8311590000000004</v>
+        <v>1.2820770000000001</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -11315,19 +14005,19 @@
       </c>
       <c r="B4" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F4 - Measurements!B4)</f>
-        <v>3.1095300000000003</v>
+        <v>1.486478</v>
       </c>
       <c r="C4" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F4 - Measurements!C4)</f>
-        <v>1.5405600000000002</v>
+        <v>1.5513399999999999</v>
       </c>
       <c r="D4" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F4 - Measurements!D4)</f>
-        <v>1.5405600000000002</v>
+        <v>1.7346099999999998</v>
       </c>
       <c r="E4" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F4 - Measurements!E4)</f>
-        <v>3.1095300000000003</v>
+        <v>1.486478</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -11337,19 +14027,19 @@
       </c>
       <c r="B5" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F5 - Measurements!B5)</f>
-        <v>1.5941679999999998</v>
+        <v>1.084322</v>
       </c>
       <c r="C5" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F5 - Measurements!C5)</f>
-        <v>0.69045199999999995</v>
+        <v>0.38213999999999992</v>
       </c>
       <c r="D5" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F5 - Measurements!D5)</f>
-        <v>0.69045199999999995</v>
+        <v>0.3363219999999999</v>
       </c>
       <c r="E5" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F5 - Measurements!E5)</f>
-        <v>1.5941679999999998</v>
+        <v>1.084322</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -11359,19 +14049,19 @@
       </c>
       <c r="B6" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F6 - Measurements!B6)</f>
-        <v>0.67222000000000004</v>
+        <v>0.67754539999999996</v>
       </c>
       <c r="C6" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F6 - Measurements!C6)</f>
-        <v>0.47864200000000001</v>
+        <v>0.50915909999999998</v>
       </c>
       <c r="D6" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F6 - Measurements!D6)</f>
-        <v>0.47864200000000001</v>
+        <v>0.49770500000000001</v>
       </c>
       <c r="E6" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F6 - Measurements!E6)</f>
-        <v>0.67222000000000004</v>
+        <v>0.67754539999999996</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -11381,19 +14071,19 @@
       </c>
       <c r="B7" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F7 - Measurements!B7)</f>
-        <v>0.26780900000000002</v>
+        <v>0.45642269999999996</v>
       </c>
       <c r="C7" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F7 - Measurements!C7)</f>
-        <v>0.22345900000000002</v>
+        <v>0.41522102999999999</v>
       </c>
       <c r="D7" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F7 - Measurements!D7)</f>
-        <v>0.22345900000000002</v>
+        <v>0.41235738</v>
       </c>
       <c r="E7" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F7 - Measurements!E7)</f>
-        <v>0.26780900000000002</v>
+        <v>0.45642269999999996</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -11403,19 +14093,19 @@
       </c>
       <c r="B8" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F8 - Measurements!B8)</f>
-        <v>9.0675509999999987E-2</v>
+        <v>0.34888439999999998</v>
       </c>
       <c r="C8" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F8 - Measurements!C8)</f>
-        <v>8.0093310000000001E-2</v>
+        <v>0.33869579</v>
       </c>
       <c r="D8" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F8 - Measurements!D8)</f>
-        <v>8.0093310000000001E-2</v>
+        <v>0.33797988000000001</v>
       </c>
       <c r="E8" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F8 - Measurements!E8)</f>
-        <v>9.0675509999999987E-2</v>
+        <v>0.34888439999999998</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -11425,19 +14115,19 @@
       </c>
       <c r="B9" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F9 - Measurements!B9)</f>
-        <v>9.4534999999999966E-3</v>
+        <v>0.29694167999999999</v>
       </c>
       <c r="C9" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F9 - Measurements!C9)</f>
-        <v>6.871099999999998E-3</v>
+        <v>0.29440851999999995</v>
       </c>
       <c r="D9" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F9 - Measurements!D9)</f>
-        <v>6.871099999999998E-3</v>
+        <v>0.29422953999999996</v>
       </c>
       <c r="E9" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F9 - Measurements!E9)</f>
-        <v>9.4534999999999966E-3</v>
+        <v>0.29694167999999999</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -11447,19 +14137,19 @@
       </c>
       <c r="B10" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F10 - Measurements!B10)</f>
-        <v>2.92099E-2</v>
+        <v>0.27156484000000003</v>
       </c>
       <c r="C10" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F10 - Measurements!C10)</f>
-        <v>2.9847600000000002E-2</v>
+        <v>0.27093330000000004</v>
       </c>
       <c r="D10" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F10 - Measurements!D10)</f>
-        <v>2.9847600000000002E-2</v>
+        <v>0.27088855000000001</v>
       </c>
       <c r="E10" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F10 - Measurements!E10)</f>
-        <v>2.92099E-2</v>
+        <v>0.27156484000000003</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -11469,19 +14159,19 @@
       </c>
       <c r="B11" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F11 - Measurements!B11)</f>
-        <v>4.8042399999999999E-2</v>
+        <v>0.25904291999999995</v>
       </c>
       <c r="C11" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F11 - Measurements!C11)</f>
-        <v>4.8200900000000005E-2</v>
+        <v>0.25888524999999996</v>
       </c>
       <c r="D11" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F11 - Measurements!D11)</f>
-        <v>4.8200900000000005E-2</v>
+        <v>0.25887406999999996</v>
       </c>
       <c r="E11" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F11 - Measurements!E11)</f>
-        <v>4.8042399999999999E-2</v>
+        <v>0.25904291999999995</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -11491,19 +14181,19 @@
       </c>
       <c r="B12" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F12 - Measurements!B12)</f>
-        <v>5.7332459999999995E-2</v>
+        <v>0.25282645999999998</v>
       </c>
       <c r="C12" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F12 - Measurements!C12)</f>
-        <v>5.7371949999999998E-2</v>
+        <v>0.25278707</v>
       </c>
       <c r="D12" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F12 - Measurements!D12)</f>
-        <v>5.7371949999999998E-2</v>
+        <v>0.25278426999999998</v>
       </c>
       <c r="E12" s="1">
         <f xml:space="preserve"> ABS(Measurements!$F12 - Measurements!E12)</f>
-        <v>5.7332459999999995E-2</v>
+        <v>0.25282645999999998</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -11532,19 +14222,19 @@
       </c>
       <c r="B15">
         <f xml:space="preserve"> ABS(Measurements!$F15 - Measurements!B15)</f>
-        <v>0.38756560000000001</v>
+        <v>0.36297760000000001</v>
       </c>
       <c r="C15">
         <f xml:space="preserve"> ABS(Measurements!$F15 - Measurements!C15)</f>
-        <v>1.0501136</v>
+        <v>0.50959559999999993</v>
       </c>
       <c r="D15">
         <f xml:space="preserve"> ABS(Measurements!$F15 - Measurements!D15)</f>
-        <v>1.0501136</v>
+        <v>0.50959559999999993</v>
       </c>
       <c r="E15">
         <f xml:space="preserve"> ABS(Measurements!$F15 - Measurements!E15)</f>
-        <v>1.7126535999999999</v>
+        <v>0.65621459999999998</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -11553,19 +14243,19 @@
       </c>
       <c r="B16">
         <f xml:space="preserve"> ABS(Measurements!$F16 - Measurements!B16)</f>
-        <v>7.4775000000000008E-2</v>
+        <v>0.1246419</v>
       </c>
       <c r="C16">
         <f xml:space="preserve"> ABS(Measurements!$F16 - Measurements!C16)</f>
-        <v>0.24041099999999999</v>
+        <v>0.16129589999999999</v>
       </c>
       <c r="D16">
         <f xml:space="preserve"> ABS(Measurements!$F16 - Measurements!D16)</f>
-        <v>0.24041099999999999</v>
+        <v>0.16129589999999999</v>
       </c>
       <c r="E16">
         <f xml:space="preserve"> ABS(Measurements!$F16 - Measurements!E16)</f>
-        <v>0.40604800000000002</v>
+        <v>0.19795089999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -11574,19 +14264,19 @@
       </c>
       <c r="B17">
         <f xml:space="preserve"> ABS(Measurements!$F17 - Measurements!B17)</f>
-        <v>8.1114500000000006E-2</v>
+        <v>6.6413E-2</v>
       </c>
       <c r="C17">
         <f xml:space="preserve"> ABS(Measurements!$F17 - Measurements!C17)</f>
-        <v>0.12252350000000001</v>
+        <v>7.5577000000000005E-2</v>
       </c>
       <c r="D17">
         <f xml:space="preserve"> ABS(Measurements!$F17 - Measurements!D17)</f>
-        <v>0.12252350000000001</v>
+        <v>7.5577000000000005E-2</v>
       </c>
       <c r="E17">
         <f xml:space="preserve"> ABS(Measurements!$F17 - Measurements!E17)</f>
-        <v>0.16393350000000001</v>
+        <v>8.4740999999999997E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -11595,19 +14285,19 @@
       </c>
       <c r="B18">
         <f xml:space="preserve"> ABS(Measurements!$F18 - Measurements!B18)</f>
-        <v>7.8144500000000006E-2</v>
+        <v>4.6172890000000001E-2</v>
       </c>
       <c r="C18">
         <f xml:space="preserve"> ABS(Measurements!$F18 - Measurements!C18)</f>
-        <v>8.84968E-2</v>
+        <v>4.846379E-2</v>
       </c>
       <c r="D18">
         <f xml:space="preserve"> ABS(Measurements!$F18 - Measurements!D18)</f>
-        <v>8.84968E-2</v>
+        <v>4.846379E-2</v>
       </c>
       <c r="E18">
         <f xml:space="preserve"> ABS(Measurements!$F18 - Measurements!E18)</f>
-        <v>9.8849000000000006E-2</v>
+        <v>5.0754690000000005E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -11616,19 +14306,19 @@
       </c>
       <c r="B19">
         <f xml:space="preserve"> ABS(Measurements!$F19 - Measurements!B19)</f>
-        <v>6.6141499999999992E-2</v>
+        <v>3.3321750000000004E-2</v>
       </c>
       <c r="C19">
         <f xml:space="preserve"> ABS(Measurements!$F19 - Measurements!C19)</f>
-        <v>6.8729600000000002E-2</v>
+        <v>3.3894550000000002E-2</v>
       </c>
       <c r="D19">
         <f xml:space="preserve"> ABS(Measurements!$F19 - Measurements!D19)</f>
-        <v>6.8729600000000002E-2</v>
+        <v>3.3894550000000002E-2</v>
       </c>
       <c r="E19">
         <f xml:space="preserve"> ABS(Measurements!$F19 - Measurements!E19)</f>
-        <v>7.1317699999999998E-2</v>
+        <v>3.4467249999999998E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -11637,19 +14327,19 @@
       </c>
       <c r="B20">
         <f xml:space="preserve"> ABS(Measurements!$F20 - Measurements!B20)</f>
-        <v>5.6799499999999996E-2</v>
+        <v>2.5444500000000002E-2</v>
       </c>
       <c r="C20">
         <f xml:space="preserve"> ABS(Measurements!$F20 - Measurements!C20)</f>
-        <v>5.7446499999999998E-2</v>
+        <v>2.5587699999999998E-2</v>
       </c>
       <c r="D20">
         <f xml:space="preserve"> ABS(Measurements!$F20 - Measurements!D20)</f>
-        <v>5.7446499999999998E-2</v>
+        <v>2.5587699999999998E-2</v>
       </c>
       <c r="E20">
         <f xml:space="preserve"> ABS(Measurements!$F20 - Measurements!E20)</f>
-        <v>5.8093499999999999E-2</v>
+        <v>2.5730799999999998E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -11658,19 +14348,19 @@
       </c>
       <c r="B21">
         <f xml:space="preserve"> ABS(Measurements!$F21 - Measurements!B21)</f>
-        <v>5.1246189999999997E-2</v>
+        <v>2.1048589999999999E-2</v>
       </c>
       <c r="C21">
         <f xml:space="preserve"> ABS(Measurements!$F21 - Measurements!C21)</f>
-        <v>5.1407939999999999E-2</v>
+        <v>2.108438E-2</v>
       </c>
       <c r="D21">
         <f xml:space="preserve"> ABS(Measurements!$F21 - Measurements!D21)</f>
-        <v>5.1407939999999999E-2</v>
+        <v>2.108438E-2</v>
       </c>
       <c r="E21">
         <f xml:space="preserve"> ABS(Measurements!$F21 - Measurements!E21)</f>
-        <v>5.1569690000000001E-2</v>
+        <v>2.1120179999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -11679,19 +14369,19 @@
       </c>
       <c r="B22">
         <f xml:space="preserve"> ABS(Measurements!$F22 - Measurements!B22)</f>
-        <v>4.8246039999999997E-2</v>
+        <v>1.8725240000000001E-2</v>
       </c>
       <c r="C22">
         <f xml:space="preserve"> ABS(Measurements!$F22 - Measurements!C22)</f>
-        <v>4.828648E-2</v>
+        <v>1.8734189999999998E-2</v>
       </c>
       <c r="D22">
         <f xml:space="preserve"> ABS(Measurements!$F22 - Measurements!D22)</f>
-        <v>4.828648E-2</v>
+        <v>1.8734189999999998E-2</v>
       </c>
       <c r="E22">
         <f xml:space="preserve"> ABS(Measurements!$F22 - Measurements!E22)</f>
-        <v>4.8326919999999995E-2</v>
+        <v>1.8743139999999998E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -11700,19 +14390,19 @@
       </c>
       <c r="B23">
         <f xml:space="preserve"> ABS(Measurements!$F23 - Measurements!B23)</f>
-        <v>4.6689870000000001E-2</v>
+        <v>1.7530769999999998E-2</v>
       </c>
       <c r="C23">
         <f xml:space="preserve"> ABS(Measurements!$F23 - Measurements!C23)</f>
-        <v>4.6699980000000002E-2</v>
+        <v>1.7533009999999998E-2</v>
       </c>
       <c r="D23">
         <f xml:space="preserve"> ABS(Measurements!$F23 - Measurements!D23)</f>
-        <v>4.6699980000000002E-2</v>
+        <v>1.7533009999999998E-2</v>
       </c>
       <c r="E23">
         <f xml:space="preserve"> ABS(Measurements!$F23 - Measurements!E23)</f>
-        <v>4.6710090000000003E-2</v>
+        <v>1.7535249999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -11721,19 +14411,19 @@
       </c>
       <c r="B24">
         <f xml:space="preserve"> ABS(Measurements!$F24 - Measurements!B24)</f>
-        <v>4.5897835999999997E-2</v>
+        <v>1.6925236E-2</v>
       </c>
       <c r="C24">
         <f xml:space="preserve"> ABS(Measurements!$F24 - Measurements!C24)</f>
-        <v>4.5900363E-2</v>
+        <v>1.6925795E-2</v>
       </c>
       <c r="D24">
         <f xml:space="preserve"> ABS(Measurements!$F24 - Measurements!D24)</f>
-        <v>4.5900363E-2</v>
+        <v>1.6925795E-2</v>
       </c>
       <c r="E24">
         <f xml:space="preserve"> ABS(Measurements!$F24 - Measurements!E24)</f>
-        <v>4.5902891000000001E-2</v>
+        <v>1.6926354000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -11742,12 +14432,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="A1:E24"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11780,19 +14470,19 @@
       </c>
       <c r="B3">
         <f>Error!B3/Error!B4</f>
-        <v>0.91047811083990193</v>
+        <v>0.86249308768780986</v>
       </c>
       <c r="C3">
         <f>Error!C3/Error!C4</f>
-        <v>15.611869060601338</v>
+        <v>8.1876945092629594</v>
       </c>
       <c r="D3">
         <f>Error!D3/Error!D4</f>
-        <v>15.611869060601338</v>
+        <v>7.7452557058935447</v>
       </c>
       <c r="E3">
         <f>Error!E3/Error!E4</f>
-        <v>0.91047811083990193</v>
+        <v>0.86249308768780986</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -11801,19 +14491,19 @@
       </c>
       <c r="B4">
         <f>Error!B4/Error!B5</f>
-        <v>1.9505660633007316</v>
+        <v>1.3708824500471262</v>
       </c>
       <c r="C4">
         <f>Error!C4/Error!C5</f>
-        <v>2.2312340321991972</v>
+        <v>4.0596116606479304</v>
       </c>
       <c r="D4">
         <f>Error!D4/Error!D5</f>
-        <v>2.2312340321991972</v>
+        <v>5.1575870742919001</v>
       </c>
       <c r="E4">
         <f>Error!E4/Error!E5</f>
-        <v>1.9505660633007316</v>
+        <v>1.3708824500471262</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -11822,19 +14512,19 @@
       </c>
       <c r="B5">
         <f>Error!B5/Error!B6</f>
-        <v>2.3714974264377728</v>
+        <v>1.600368034378213</v>
       </c>
       <c r="C5">
         <f>Error!C5/Error!C6</f>
-        <v>1.4425228040999325</v>
+        <v>0.75053161182820838</v>
       </c>
       <c r="D5">
         <f>Error!D5/Error!D6</f>
-        <v>1.4425228040999325</v>
+        <v>0.67574567263740548</v>
       </c>
       <c r="E5">
         <f>Error!E5/Error!E6</f>
-        <v>2.3714974264377728</v>
+        <v>1.600368034378213</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -11843,19 +14533,19 @@
       </c>
       <c r="B6">
         <f>Error!B6/Error!B7</f>
-        <v>2.5100724770265375</v>
+        <v>1.4844691116370856</v>
       </c>
       <c r="C6">
         <f>Error!C6/Error!C7</f>
-        <v>2.1419678777762363</v>
+        <v>1.2262363011815658</v>
       </c>
       <c r="D6">
         <f>Error!D6/Error!D7</f>
-        <v>2.1419678777762363</v>
+        <v>1.2069748818367214</v>
       </c>
       <c r="E6">
         <f>Error!E6/Error!E7</f>
-        <v>2.5100724770265375</v>
+        <v>1.4844691116370856</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -11864,19 +14554,19 @@
       </c>
       <c r="B7">
         <f>Error!B7/Error!B8</f>
-        <v>2.9534876616630008</v>
+        <v>1.3082347620013963</v>
       </c>
       <c r="C7">
         <f>Error!C7/Error!C8</f>
-        <v>2.7899833331897512</v>
+        <v>1.2259409247454773</v>
       </c>
       <c r="D7">
         <f>Error!D7/Error!D8</f>
-        <v>2.7899833331897512</v>
+        <v>1.2200648748676992</v>
       </c>
       <c r="E7">
         <f>Error!E7/Error!E8</f>
-        <v>2.9534876616630008</v>
+        <v>1.3082347620013963</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -11885,19 +14575,19 @@
       </c>
       <c r="B8">
         <f>Error!B8/Error!B9</f>
-        <v>9.591739567356008</v>
+        <v>1.1749256621704303</v>
       </c>
       <c r="C8">
         <f>Error!C8/Error!C9</f>
-        <v>11.656548442025297</v>
+        <v>1.1504279495715684</v>
       </c>
       <c r="D8">
         <f>Error!D8/Error!D9</f>
-        <v>11.656548442025297</v>
+        <v>1.1486945872260144</v>
       </c>
       <c r="E8">
         <f>Error!E8/Error!E9</f>
-        <v>9.591739567356008</v>
+        <v>1.1749256621704303</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -11906,19 +14596,19 @@
       </c>
       <c r="B9">
         <f>Error!B9/Error!B10</f>
-        <v>0.32364027264728729</v>
+        <v>1.0934467068711839</v>
       </c>
       <c r="C9">
         <f>Error!C9/Error!C10</f>
-        <v>0.23020611372438646</v>
+        <v>1.0866457537703926</v>
       </c>
       <c r="D9">
         <f>Error!D9/Error!D10</f>
-        <v>0.23020611372438646</v>
+        <v>1.0861645499597525</v>
       </c>
       <c r="E9">
         <f>Error!E9/Error!E10</f>
-        <v>0.32364027264728729</v>
+        <v>1.0934467068711839</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -11927,19 +14617,19 @@
       </c>
       <c r="B10">
         <f>Error!B10/Error!B11</f>
-        <v>0.60800251444557307</v>
+        <v>1.0483391709759915</v>
       </c>
       <c r="C10">
         <f>Error!C10/Error!C11</f>
-        <v>0.619233250831416</v>
+        <v>1.0465381863200012</v>
       </c>
       <c r="D10">
         <f>Error!D10/Error!D11</f>
-        <v>0.619233250831416</v>
+        <v>1.0464105192149993</v>
       </c>
       <c r="E10">
         <f>Error!E10/Error!E11</f>
-        <v>0.60800251444557307</v>
+        <v>1.0483391709759915</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -11948,19 +14638,19 @@
       </c>
       <c r="B11">
         <f>Error!B11/Error!B12</f>
-        <v>0.83796160150811605</v>
+        <v>1.0245878536605701</v>
       </c>
       <c r="C11">
         <f>Error!C11/Error!C12</f>
-        <v>0.84014749367940267</v>
+        <v>1.0241237813310624</v>
       </c>
       <c r="D11">
         <f>Error!D11/Error!D12</f>
-        <v>0.84014749367940267</v>
+        <v>1.0240908977445471</v>
       </c>
       <c r="E11">
         <f>Error!E11/Error!E12</f>
-        <v>0.83796160150811605</v>
+        <v>1.0245878536605701</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -11993,19 +14683,19 @@
       </c>
       <c r="B15">
         <f>Error!B15/Error!B16</f>
-        <v>5.1830906051487791</v>
+        <v>2.9121635661844052</v>
       </c>
       <c r="C15">
         <f>Error!C15/Error!C16</f>
-        <v>4.367993145072397</v>
+        <v>3.1593834685196582</v>
       </c>
       <c r="D15">
         <f>Error!D15/Error!D16</f>
-        <v>4.367993145072397</v>
+        <v>3.1593834685196582</v>
       </c>
       <c r="E15">
         <f>Error!E15/Error!E16</f>
-        <v>4.2178599574434541</v>
+        <v>3.315037213773719</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -12014,19 +14704,19 @@
       </c>
       <c r="B16">
         <f>Error!B16/Error!B17</f>
-        <v>0.92184504620012453</v>
+        <v>1.8767696083598091</v>
       </c>
       <c r="C16">
         <f>Error!C16/Error!C17</f>
-        <v>1.9621623606899898</v>
+        <v>2.1341929422972594</v>
       </c>
       <c r="D16">
         <f>Error!D16/Error!D17</f>
-        <v>1.9621623606899898</v>
+        <v>2.1341929422972594</v>
       </c>
       <c r="E16">
         <f>Error!E16/Error!E17</f>
-        <v>2.4769067945233889</v>
+        <v>2.3359519004968079</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -12035,19 +14725,19 @@
       </c>
       <c r="B17">
         <f>Error!B17/Error!B18</f>
-        <v>1.0380065135742118</v>
+        <v>1.4383548441520555</v>
       </c>
       <c r="C17">
         <f>Error!C17/Error!C18</f>
-        <v>1.3844963885699824</v>
+        <v>1.5594529441465474</v>
       </c>
       <c r="D17">
         <f>Error!D17/Error!D18</f>
-        <v>1.3844963885699824</v>
+        <v>1.5594529441465474</v>
       </c>
       <c r="E17">
         <f>Error!E17/Error!E18</f>
-        <v>1.6584234539550222</v>
+        <v>1.6696191031804153</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -12056,19 +14746,19 @@
       </c>
       <c r="B18">
         <f>Error!B18/Error!B19</f>
-        <v>1.181474565892821</v>
+        <v>1.3856682197063479</v>
       </c>
       <c r="C18">
         <f>Error!C18/Error!C19</f>
-        <v>1.2876082503026351</v>
+        <v>1.4298401955476616</v>
       </c>
       <c r="D18">
         <f>Error!D18/Error!D19</f>
-        <v>1.2876082503026351</v>
+        <v>1.4298401955476616</v>
       </c>
       <c r="E18">
         <f>Error!E18/Error!E19</f>
-        <v>1.3860374072635546</v>
+        <v>1.4725482885927947</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -12077,19 +14767,19 @@
       </c>
       <c r="B19">
         <f>Error!B19/Error!B20</f>
-        <v>1.1644732788140739</v>
+        <v>1.3095855685904616</v>
       </c>
       <c r="C19">
         <f>Error!C19/Error!C20</f>
-        <v>1.1964105733160419</v>
+        <v>1.3246423086092147</v>
       </c>
       <c r="D19">
         <f>Error!D19/Error!D20</f>
-        <v>1.1964105733160419</v>
+        <v>1.3246423086092147</v>
       </c>
       <c r="E19">
         <f>Error!E19/Error!E20</f>
-        <v>1.2276364825668964</v>
+        <v>1.3395327778382329</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -12098,19 +14788,19 @@
       </c>
       <c r="B20">
         <f>Error!B20/Error!B21</f>
-        <v>1.1083653243294769</v>
+        <v>1.2088458181759445</v>
       </c>
       <c r="C20">
         <f>Error!C20/Error!C21</f>
-        <v>1.1174635669120372</v>
+        <v>1.2135856022325531</v>
       </c>
       <c r="D20">
         <f>Error!D20/Error!D21</f>
-        <v>1.1174635669120372</v>
+        <v>1.2135856022325531</v>
       </c>
       <c r="E20">
         <f>Error!E20/Error!E21</f>
-        <v>1.1265047356305613</v>
+        <v>1.2183040106665757</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -12119,19 +14809,19 @@
       </c>
       <c r="B21">
         <f>Error!B21/Error!B22</f>
-        <v>1.0621843782411986</v>
+        <v>1.1240758462908886</v>
       </c>
       <c r="C21">
         <f>Error!C21/Error!C22</f>
-        <v>1.064644596168534</v>
+        <v>1.1254492454704474</v>
       </c>
       <c r="D21">
         <f>Error!D21/Error!D22</f>
-        <v>1.064644596168534</v>
+        <v>1.1254492454704474</v>
       </c>
       <c r="E21">
         <f>Error!E21/Error!E22</f>
-        <v>1.0671006966717516</v>
+        <v>1.1268218665602456</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -12140,19 +14830,19 @@
       </c>
       <c r="B22">
         <f>Error!B22/Error!B23</f>
-        <v>1.0333299278837142</v>
+        <v>1.0681356266724167</v>
       </c>
       <c r="C22">
         <f>Error!C22/Error!C23</f>
-        <v>1.0339721772900117</v>
+        <v>1.0685096284094973</v>
       </c>
       <c r="D22">
         <f>Error!D22/Error!D23</f>
-        <v>1.0339721772900117</v>
+        <v>1.0685096284094973</v>
       </c>
       <c r="E22">
         <f>Error!E22/Error!E23</f>
-        <v>1.0346141486775127</v>
+        <v>1.0688835345946024</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -12161,19 +14851,19 @@
       </c>
       <c r="B23">
         <f>Error!B23/Error!B24</f>
-        <v>1.0172564562738864</v>
+        <v>1.0357769900520144</v>
       </c>
       <c r="C23">
         <f>Error!C23/Error!C24</f>
-        <v>1.0174207119015595</v>
+        <v>1.0358751243294626</v>
       </c>
       <c r="D23">
         <f>Error!D23/Error!D24</f>
-        <v>1.0174207119015595</v>
+        <v>1.0358751243294626</v>
       </c>
       <c r="E23">
         <f>Error!E23/Error!E24</f>
-        <v>1.0175849272761492</v>
+        <v>1.0359732521250589</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -12187,7 +14877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -12652,7 +15342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -13136,12 +15826,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Measurements/error_measurements.xlsx
+++ b/Measurements/error_measurements.xlsx
@@ -812,6 +812,1410 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Error Displacement</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error0!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error0!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error0!$B$15:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.38756560000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4775000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1114500000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8144500000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6141499999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6799499999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1246189999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8246039999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6689870000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5897835999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA94-4EF9-ABAE-B2E96D48676B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error0!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>symplectic_euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error0!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error0!$C$15:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0501136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24041099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12252350000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.84968E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8729600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7446499999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1407939999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.828648E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6699980000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5900363E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AA94-4EF9-ABAE-B2E96D48676B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error0!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>midpoint</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error0!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error0!$D$15:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0501136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24041099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12252350000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.84968E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8729600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7446499999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1407939999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.828648E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6699980000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5900363E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AA94-4EF9-ABAE-B2E96D48676B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error0!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>backwards_euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error0!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error0!$E$15:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.7126535999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40604800000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16393350000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8849000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1317699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8093499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1569690000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8326919999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6710090000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5902891000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AA94-4EF9-ABAE-B2E96D48676B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="587662168"/>
+        <c:axId val="587659872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="587662168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="587659872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="587659872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="587662168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Velocity Convergence Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergenceRate0!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.91047811083990193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9505660633007316</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3714974264377728</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5100724770265375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9534876616630008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.591739567356008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32364027264728729</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60800251444557307</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83796160150811605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-594A-44AE-AFBE-3CAE2CAAB1AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergenceRate0!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>symplectic_euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>15.611869060601338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2312340321991972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4425228040999325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1419678777762363</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7899833331897512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.656548442025297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23020611372438646</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.619233250831416</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84014749367940267</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-594A-44AE-AFBE-3CAE2CAAB1AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergenceRate0!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>midpoint</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>15.611869060601338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2312340321991972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4425228040999325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1419678777762363</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7899833331897512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.656548442025297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23020611372438646</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.619233250831416</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84014749367940267</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-594A-44AE-AFBE-3CAE2CAAB1AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConvergenceRate0!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>backwards_euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConvergenceRate0!$E$3:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.91047811083990193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9505660633007316</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3714974264377728</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5100724770265375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9534876616630008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.591739567356008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32364027264728729</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60800251444557307</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83796160150811605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-594A-44AE-AFBE-3CAE2CAAB1AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="430223568"/>
+        <c:axId val="587679224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="430223568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="587679224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="587679224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430223568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2231,6 +3635,1434 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Displacement Error</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error!$B$15:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.36297760000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1246419</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6413E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6172890000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3321750000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5444500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1048589999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8725240000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7530769999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6925236E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA5D-4E34-BBD7-9D329310C42B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>symplectic_euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error!$C$15:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.50959559999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16129589999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5577000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.846379E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3894550000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5587699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.108438E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8734189999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7533009999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6925795E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AA5D-4E34-BBD7-9D329310C42B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>midpoint</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error!$D$15:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.50959559999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16129589999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5577000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.846379E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3894550000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5587699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.108438E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8734189999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7533009999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6925795E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AA5D-4E34-BBD7-9D329310C42B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>backwards_euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error!$E$15:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.65621459999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19795089999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4740999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0754690000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4467249999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5730799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1120179999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8743139999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7535249999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6926354000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AA5D-4E34-BBD7-9D329310C42B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="559360304"/>
+        <c:axId val="559363584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="559360304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559363584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="559363584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559360304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Error Displacement</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error0!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error0!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error0!$B$15:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.38756560000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4775000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1114500000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8144500000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6141499999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6799499999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1246189999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8246039999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6689870000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5897835999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5583-4198-9943-98FA69C04696}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error0!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>symplectic_euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error0!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error0!$C$15:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0501136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24041099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12252350000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.84968E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8729600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7446499999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1407939999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.828648E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6699980000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5900363E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5583-4198-9943-98FA69C04696}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error0!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>midpoint</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error0!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error0!$D$15:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0501136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24041099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12252350000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.84968E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8729600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7446499999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1407939999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.828648E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6699980000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5900363E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5583-4198-9943-98FA69C04696}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error0!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>backwards_euler</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Error0!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Error0!$E$15:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.7126535999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40604800000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16393350000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8849000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1317699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8093499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1569690000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8326919999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6710090000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5902891000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5583-4198-9943-98FA69C04696}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="587662168"/>
+        <c:axId val="587659872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="587662168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="587659872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="587659872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="587662168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Velocity Error</a:t>
             </a:r>
           </a:p>
@@ -2910,7 +5742,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -3624,7 +6456,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -4369,7 +7201,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -5064,7 +7896,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -5778,1410 +8610,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Error Displacement</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Error0!$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>euler</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Error0!$A$15:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5630000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.8100000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9100000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.7999999999999997E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Error0!$B$15:$B$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.38756560000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.4775000000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.1114500000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.8144500000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.6141499999999992E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.6799499999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.1246189999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.8246039999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6689870000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.5897835999999997E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AA94-4EF9-ABAE-B2E96D48676B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Error0!$C$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>symplectic_euler</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Error0!$A$15:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5630000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.8100000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9100000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.7999999999999997E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Error0!$C$15:$C$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.0501136</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.24041099999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.12252350000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.84968E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.8729600000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.7446499999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.1407939999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.828648E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6699980000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.5900363E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AA94-4EF9-ABAE-B2E96D48676B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Error0!$D$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>midpoint</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Error0!$A$15:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5630000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.8100000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9100000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.7999999999999997E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Error0!$D$15:$D$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.0501136</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.24041099999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.12252350000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.84968E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.8729600000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.7446499999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.1407939999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.828648E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6699980000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.5900363E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AA94-4EF9-ABAE-B2E96D48676B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Error0!$E$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>backwards_euler</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Error0!$A$15:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5630000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.8100000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9100000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.7999999999999997E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Error0!$E$15:$E$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.7126535999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.40604800000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.16393350000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.8849000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.1317699999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.8093499999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.1569690000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.8326919999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6710090000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.5902891000000001E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AA94-4EF9-ABAE-B2E96D48676B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="587662168"/>
-        <c:axId val="587659872"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="587662168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="587659872"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="587659872"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="587662168"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Velocity Convergence Rate</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ConvergenceRate0!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>euler</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>ConvergenceRate0!$A$3:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5630000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.8100000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9100000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9499999999999999E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ConvergenceRate0!$B$3:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.91047811083990193</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9505660633007316</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.3714974264377728</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5100724770265375</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.9534876616630008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.591739567356008</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.32364027264728729</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.60800251444557307</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.83796160150811605</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-594A-44AE-AFBE-3CAE2CAAB1AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ConvergenceRate0!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>symplectic_euler</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>ConvergenceRate0!$A$3:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5630000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.8100000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9100000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9499999999999999E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ConvergenceRate0!$C$3:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>15.611869060601338</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2312340321991972</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4425228040999325</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.1419678777762363</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.7899833331897512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.656548442025297</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.23020611372438646</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.619233250831416</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.84014749367940267</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-594A-44AE-AFBE-3CAE2CAAB1AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ConvergenceRate0!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>midpoint</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>ConvergenceRate0!$A$3:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5630000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.8100000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9100000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9499999999999999E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ConvergenceRate0!$D$3:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>15.611869060601338</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2312340321991972</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4425228040999325</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.1419678777762363</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.7899833331897512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.656548442025297</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.23020611372438646</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.619233250831416</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.84014749367940267</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-594A-44AE-AFBE-3CAE2CAAB1AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ConvergenceRate0!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>backwards_euler</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>ConvergenceRate0!$A$3:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5630000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.8100000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9100000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9499999999999999E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ConvergenceRate0!$E$3:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.91047811083990193</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9505660633007316</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.3714974264377728</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5100724770265375</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.9534876616630008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.591739567356008</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.32364027264728729</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.60800251444557307</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.83796160150811605</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-594A-44AE-AFBE-3CAE2CAAB1AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="430223568"/>
-        <c:axId val="587679224"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="430223568"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="587679224"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="587679224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="430223568"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7223,6 +8651,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8614,6 +10122,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -12803,6 +15343,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13370,8 +15974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13950,7 +16554,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="A1:E24"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
